--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2447311.112242274</v>
+        <v>-2450243.621211589</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>295.9459455362297</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>14.9176304185043</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.9152309627403</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>111.6975161720939</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>93.7629795948079</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>180.7246862797361</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>128.8596902248278</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>110.92720347361</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.3517689015295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.68079944611821</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>186.1116332563707</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>208.3423105940807</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>368.1940563011266</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>384.7008942787112</v>
       </c>
     </row>
     <row r="12">
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1582,13 +1582,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>226.563062137002</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>147.8185411830639</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>21.69718571885169</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>97.24762927924164</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>143.2091541404067</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>17.48314223074837</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>151.5133592021556</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2494,7 +2494,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652732</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>42.09059921808189</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T25" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972055</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317882</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317892</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972057</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972055</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972055</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096048</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972055</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317882</v>
@@ -3946,13 +3946,13 @@
         <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096048</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317882</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.915471247702</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1491.915471247702</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1106.127218649458</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>695.1413138598505</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>396.2060153384064</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>69.0112953744092</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="3">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2486.083707041605</v>
+        <v>317.5892451470672</v>
       </c>
       <c r="C4" t="n">
-        <v>2373.257933130399</v>
+        <v>148.6530622191603</v>
       </c>
       <c r="D4" t="n">
-        <v>2373.257933130399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2373.257933130399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2226.367985632488</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2226.367985632488</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2667.732171871844</v>
+        <v>545.5787960450846</v>
       </c>
       <c r="X4" t="n">
-        <v>2667.732171871844</v>
+        <v>317.5892451470672</v>
       </c>
       <c r="Y4" t="n">
-        <v>2667.732171871844</v>
+        <v>317.5892451470672</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.0401021781393</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E5" t="n">
         <v>74.81188663097703</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1918.413847685145</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1565.645192415031</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1192.179434153951</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.0401021781393</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541693</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541693</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1341.294330781294</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C8" t="n">
-        <v>972.3318138408822</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341316</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.414268258235</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y8" t="n">
-        <v>1371.274936282423</v>
+        <v>924.4350995402963</v>
       </c>
     </row>
     <row r="9">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.6822058285749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>517.6822058285749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.6822058285749</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5045,7 +5045,7 @@
         <v>842.9429223347665</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.462702840541</v>
+        <v>1511.709654113219</v>
       </c>
       <c r="M11" t="n">
         <v>2232.714216052256</v>
@@ -5081,7 +5081,7 @@
         <v>3466.881868950625</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.968680767669</v>
+        <v>3093.416110689545</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.829348791857</v>
@@ -5130,16 +5130,16 @@
         <v>1062.705720206928</v>
       </c>
       <c r="N12" t="n">
-        <v>1321.433197946704</v>
+        <v>1356.759402180614</v>
       </c>
       <c r="O12" t="n">
-        <v>1868.309672946898</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="P12" t="n">
-        <v>2287.893191372974</v>
+        <v>2323.219395606885</v>
       </c>
       <c r="Q12" t="n">
-        <v>2518.454465358221</v>
+        <v>2553.780669592131</v>
       </c>
       <c r="R12" t="n">
         <v>2553.780669592131</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1099.390323855922</v>
+        <v>635.1695421202546</v>
       </c>
       <c r="C13" t="n">
-        <v>930.454140928015</v>
+        <v>466.2333591923477</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3375015156793</v>
+        <v>466.2333591923477</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4244079332861</v>
+        <v>318.3202656099546</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5344604353758</v>
+        <v>318.3202656099546</v>
       </c>
       <c r="G13" t="n">
         <v>318.3202656099546</v>
@@ -5230,19 +5230,19 @@
         <v>1958.672496643873</v>
       </c>
       <c r="U13" t="n">
-        <v>1958.672496643873</v>
+        <v>1669.596282958599</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.820918727709</v>
+        <v>1414.911794752712</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.820918727709</v>
+        <v>1265.600136992042</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.831367829692</v>
+        <v>1037.610586094024</v>
       </c>
       <c r="Y13" t="n">
-        <v>1281.038788686162</v>
+        <v>816.8180069504944</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,13 +5291,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,19 +5352,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>486.4214942667319</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>339.5315467688215</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5592,7 +5592,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5601,10 +5601,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2165.878320670274</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1876.803094014472</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5841,7 +5841,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075798</v>
@@ -6075,19 +6075,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517213</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319336</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656829</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150036</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942668</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580128</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345491</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384035</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979287</v>
@@ -6178,19 +6178,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,16 +6306,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E28" t="n">
         <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,16 +6406,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
@@ -6427,7 +6427,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6461,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6549,7 +6549,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
         <v>1344.266747951538</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6637,16 +6637,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,16 +6655,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,10 +6786,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6835,13 +6835,13 @@
         <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
         <v>1896.176478190825</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190825</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7345,19 +7345,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,16 +7366,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
         <v>1896.176478190825</v>
@@ -7810,7 +7810,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,19 +7819,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7843,7 +7843,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,10 +8693,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>49.74439522492673</v>
       </c>
       <c r="M11" t="n">
-        <v>49.74439522492685</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>137.0136858263569</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>2.533089394917454</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>55.54930492653396</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>105.7983120568549</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>1.537044377342397</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>25.57458118682595</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>138.7044571535271</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>143.8269525734171</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>120.1578210480466</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>75.37549921168812</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>149.7636788678795</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>74.1962961868816</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.4159784583755e-12</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15897.72560895846</v>
+        <v>15897.72560895845</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="E2" t="n">
         <v>20164.01570965307</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="J2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
         <v>20526.0442466071</v>
@@ -26350,10 +26350,10 @@
         <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936391.4095185975</v>
+        <v>936391.4095185974</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.63761495089</v>
+        <v>7852.63761495071</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363184</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,13 +26399,13 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363185</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95396.83018339486</v>
+        <v>95396.83018339491</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,13 +26424,13 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718172</v>
+        <v>5759.93888671817</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670487</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670458</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
@@ -26439,22 +26439,22 @@
         <v>13058.45186476392</v>
       </c>
       <c r="J4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="K4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="L4" t="n">
         <v>13058.45186476392</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="N4" t="n">
         <v>13058.45186476392</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476392</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-752326.0618523902</v>
+        <v>-752788.8937161553</v>
       </c>
       <c r="C6" t="n">
         <v>-263397.5397445339</v>
@@ -26528,40 +26528,40 @@
         <v>-263397.5397445339</v>
       </c>
       <c r="E6" t="n">
-        <v>-1022893.291474139</v>
+        <v>-1022929.494327834</v>
       </c>
       <c r="F6" t="n">
-        <v>-93864.09504827828</v>
+        <v>-93898.83297371383</v>
       </c>
       <c r="G6" t="n">
-        <v>-86011.45743332739</v>
+        <v>-86046.19535876307</v>
       </c>
       <c r="H6" t="n">
-        <v>-86011.45743332739</v>
+        <v>-86046.19535876309</v>
       </c>
       <c r="I6" t="n">
-        <v>-115124.241465704</v>
+        <v>-115124.2414657041</v>
       </c>
       <c r="J6" t="n">
-        <v>-272119.7426646652</v>
+        <v>-272119.7426646651</v>
       </c>
       <c r="K6" t="n">
+        <v>-95696.52347207221</v>
+      </c>
+      <c r="L6" t="n">
         <v>-95696.52347207222</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-95696.52347207221</v>
       </c>
       <c r="M6" t="n">
         <v>-219905.0341801307</v>
       </c>
       <c r="N6" t="n">
-        <v>-115124.241465704</v>
+        <v>-115124.2414657041</v>
       </c>
       <c r="O6" t="n">
-        <v>-95696.52347207221</v>
+        <v>-95696.52347207212</v>
       </c>
       <c r="P6" t="n">
-        <v>-95696.52347207222</v>
+        <v>-95696.52347207227</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>24.28464749203976</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203981</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.297384499299</v>
+        <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>117.8382244845653</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>54.85249342340445</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>198.8925682453071</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>35.50675917295912</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.23288445056531</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>353.0530422173624</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>200.1263053996828</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>17.36734479495641</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="41">
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31850,7 +31850,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>392.6825986891682</v>
+        <v>428.3656332688754</v>
       </c>
       <c r="O12" t="n">
         <v>694.9967242426204</v>
@@ -31862,7 +31862,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.2575834086216</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286976</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32561,10 +32561,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>340.4395077511227</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -32810,7 +32810,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>139.5228722182831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33269,10 +33269,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N30" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>491.597732526532</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,7 +34457,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>357.9244589488886</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -34936,7 +34936,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,10 +35413,10 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>675.5219512913658</v>
       </c>
       <c r="M11" t="n">
-        <v>778.0318315269849</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
         <v>744.7323009263698</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>261.3408866058349</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="O12" t="n">
         <v>552.400479798176</v>
@@ -35510,7 +35510,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>197.8432633066793</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36209,10 +36209,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36443,13 +36443,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>349.0014880820875</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,7 +38105,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>226.5827468655553</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
